--- a/GAMonopoly Helper/src/edu/uccs/ecgs/utility/allscores_num_wins.xlsx
+++ b/GAMonopoly Helper/src/edu/uccs/ecgs/utility/allscores_num_wins.xlsx
@@ -1615,11 +1615,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46568960"/>
-        <c:axId val="46583808"/>
+        <c:axId val="39187200"/>
+        <c:axId val="39189504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46568960"/>
+        <c:axId val="39187200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,14 +1643,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46583808"/>
+        <c:crossAx val="39189504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46583808"/>
+        <c:axId val="39189504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1676,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46568960"/>
+        <c:crossAx val="39187200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2014,9 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2060,7 +2058,6 @@
         <v>990</v>
       </c>
       <c r="I2">
-        <f>G4</f>
         <v>500</v>
       </c>
       <c r="J2">
